--- a/biology/Zoologie/Austroglossus_microlepis/Austroglossus_microlepis.xlsx
+++ b/biology/Zoologie/Austroglossus_microlepis/Austroglossus_microlepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sole australe occidentale
-Austroglossus microlepis, communément appelé la Sole australe occidentale[3], est une espèce de poissons plats de la famille des Soleidae. On la trouve le long des côtes africaines de l'Atlantique sud (Afrique du Sud, Namibie), entre 100 et 400 m de profondeur[4].
+Austroglossus microlepis, communément appelé la Sole australe occidentale, est une espèce de poissons plats de la famille des Soleidae. On la trouve le long des côtes africaines de l'Atlantique sud (Afrique du Sud, Namibie), entre 100 et 400 m de profondeur.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austroglossus microlepis peut mesurer jusqu'à 75 cm et peser jusqu'à 4 kg[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austroglossus microlepis peut mesurer jusqu'à 75 cm et peser jusqu'à 4 kg.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin micro, « petit, petite », et lepis, « écaille », lui a été donné en référence à ses écailles plus petites et plus nombreuses comparativement à l'espèce Austroglossus pectoralis[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin micro, « petit, petite », et lepis, « écaille », lui a été donné en référence à ses écailles plus petites et plus nombreuses comparativement à l'espèce Austroglossus pectoralis.
 </t>
         </is>
       </c>
